--- a/07. 한글 문서/[쇼우테크] SNS콘텐츠 마케팅 인턴십.xlsx
+++ b/07. 한글 문서/[쇼우테크] SNS콘텐츠 마케팅 인턴십.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\사용자\Desktop\미래내일일경험\python_lab\07. 한글 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\미래내일일경험 공유\python_lab\07. 한글 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE8288-71D4-4649-AADB-10F1AF5F4590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D3922D-0EEE-48B9-A551-B218FE79C3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="780" windowWidth="34695" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="참여자명단" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="374">
   <si>
     <t>특이사항 기재</t>
   </si>
@@ -3070,6 +3070,10 @@
   </si>
   <si>
     <t>참여일(8주)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여기업</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4482,7 +4486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5040,6 +5044,12 @@
     <xf numFmtId="178" fontId="70" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5082,6 +5092,24 @@
     <xf numFmtId="49" fontId="22" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5091,33 +5119,13 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 강조색5" xfId="2" builtinId="46"/>
@@ -5425,10 +5433,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5440,25 +5448,27 @@
     <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="8.875" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="216" customWidth="1"/>
+    <col min="12" max="12" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
@@ -5489,65 +5499,68 @@
       <c r="J1" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="215" t="s">
+        <v>373</v>
+      </c>
+      <c r="L1" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="M1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="N1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="82" t="s">
+      <c r="O1" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="82" t="s">
+      <c r="P1" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="Q1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="82" t="s">
+      <c r="R1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="82" t="s">
-        <v>25</v>
-      </c>
       <c r="S1" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="82" t="s">
+      <c r="U1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="82" t="s">
+      <c r="V1" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="82" t="s">
+      <c r="W1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="82" t="s">
+      <c r="X1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="83" t="s">
+      <c r="Y1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="83" t="s">
+      <c r="Z1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="83" t="s">
+      <c r="AA1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="83" t="s">
+      <c r="AB1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="84" t="s">
+      <c r="AC1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="83" t="s">
+      <c r="AD1" s="83" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5567,85 +5580,89 @@
       <c r="G2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="214" t="str">
+      <c r="H2" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I2" s="213">
+      <c r="I2" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="1"/>
+      <c r="V2" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="W2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="X2" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="X2" s="51" t="str">
-        <f t="shared" ref="X2:X16" si="0">V2&amp; "/" &amp;W2</f>
+      <c r="Y2" s="51" t="str">
+        <f t="shared" ref="Y2:Y16" si="0">W2&amp; "/" &amp;X2</f>
         <v>우리은행/1002-263-075614</v>
       </c>
-      <c r="Y2" s="51" t="str">
-        <f>IF(OR(MID(M2, 8, 1) = "3", MOD(MID(M2, 8, 1), 2) = 1), "남", "여")</f>
+      <c r="Z2" s="51" t="str">
+        <f>IF(OR(MID(N2, 8, 1) = "3", MOD(MID(N2, 8, 1), 2) = 1), "남", "여")</f>
         <v>남</v>
       </c>
-      <c r="Z2" s="51" t="str">
-        <f>LEFT(M2, 6)</f>
-        <v>980515</v>
-      </c>
-      <c r="AA2" s="51" t="str">
-        <f>IF(VALUE(MID(M2, 8, 1)) &lt;= 2, "19" &amp; LEFT(M2, 2), "20" &amp; LEFT(M2, 2))</f>
+      <c r="AA2" s="214" t="str">
+        <f>IF(MID(N2,8,1)*1&lt;=2, "19", "20") &amp; LEFT(N2,2) &amp; "." &amp; MID(N2,3,2) &amp; "." &amp; MID(N2,5,2)</f>
+        <v>1998.05.15</v>
+      </c>
+      <c r="AB2" s="51" t="str">
+        <f>IF(VALUE(MID(N2, 8, 1)) &lt;= 2, "19" &amp; LEFT(N2, 2), "20" &amp; LEFT(N2, 2))</f>
         <v>1998</v>
       </c>
-      <c r="AB2" s="51">
-        <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(M2, 8, 1)) &lt;= 2, "19" &amp; LEFT(M2, 2), "20" &amp; LEFT(M2, 2)))</f>
+      <c r="AC2" s="51">
+        <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(N2, 8, 1)) &lt;= 2, "19" &amp; LEFT(N2, 2), "20" &amp; LEFT(N2, 2)))</f>
         <v>27</v>
       </c>
-      <c r="AC2" s="51" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("서울", U2)), ISNUMBER(SEARCH("인천", U2)), ISNUMBER(SEARCH("경기", U2))), "수도권",
-   IF(OR(ISNUMBER(SEARCH("부산", U2)), ISNUMBER(SEARCH("대구", U2)), ISNUMBER(SEARCH("울산", U2)), ISNUMBER(SEARCH("경북", U2)), ISNUMBER(SEARCH("경남", U2)), ISNUMBER(SEARCH("양산", U2)), ISNUMBER(SEARCH("김해", U2)), ISNUMBER(SEARCH("창원", U2)), ISNUMBER(SEARCH("경상북도", U2)), ISNUMBER(SEARCH("경상남도", U2))), "경상권",
-   IF(OR(ISNUMBER(SEARCH("광주", U2)), ISNUMBER(SEARCH("전북", U2)), ISNUMBER(SEARCH("전남", U2)), ISNUMBER(SEARCH("전라북도", U2)), ISNUMBER(SEARCH("전라남도", U2))), "호남권",
-   IF(OR(ISNUMBER(SEARCH("대전", U2)), ISNUMBER(SEARCH("충북", U2)), ISNUMBER(SEARCH("세종", U2)), ISNUMBER(SEARCH("충남", U2)), ISNUMBER(SEARCH("충청북도", U2)), ISNUMBER(SEARCH("충청남도", U2))), "충청권",
-   IF(ISNUMBER(SEARCH("강원", U2)), "강원권",
-   IF(ISNUMBER(SEARCH("제주", U2)), "제주"))))))</f>
+      <c r="AD2" s="51" t="str">
+        <f>IF(OR(ISNUMBER(SEARCH("서울", V2)), ISNUMBER(SEARCH("인천", V2)), ISNUMBER(SEARCH("경기", V2))), "수도권",
+   IF(OR(ISNUMBER(SEARCH("부산", V2)), ISNUMBER(SEARCH("대구", V2)), ISNUMBER(SEARCH("울산", V2)), ISNUMBER(SEARCH("경북", V2)), ISNUMBER(SEARCH("경남", V2)), ISNUMBER(SEARCH("양산", V2)), ISNUMBER(SEARCH("김해", V2)), ISNUMBER(SEARCH("창원", V2)), ISNUMBER(SEARCH("경상북도", V2)), ISNUMBER(SEARCH("경상남도", V2))), "경상권",
+   IF(OR(ISNUMBER(SEARCH("광주", V2)), ISNUMBER(SEARCH("전북", V2)), ISNUMBER(SEARCH("전남", V2)), ISNUMBER(SEARCH("전라북도", V2)), ISNUMBER(SEARCH("전라남도", V2))), "호남권",
+   IF(OR(ISNUMBER(SEARCH("대전", V2)), ISNUMBER(SEARCH("충북", V2)), ISNUMBER(SEARCH("세종", V2)), ISNUMBER(SEARCH("충남", V2)), ISNUMBER(SEARCH("충청북도", V2)), ISNUMBER(SEARCH("충청남도", V2))), "충청권",
+   IF(ISNUMBER(SEARCH("강원", V2)), "강원권",
+   IF(ISNUMBER(SEARCH("제주", V2)), "제주"))))))</f>
         <v>경상권</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5662,90 +5679,94 @@
       <c r="F3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="214" t="s">
+      <c r="G3" s="190" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="214" t="str">
+      <c r="H3" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I3" s="213">
+      <c r="I3" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="V3" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="V3" s="49" t="s">
+      <c r="W3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="50" t="s">
+      <c r="X3" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="X3" s="51" t="str">
+      <c r="Y3" s="51" t="str">
         <f t="shared" si="0"/>
         <v>신한은행/110-309-305274</v>
       </c>
-      <c r="Y3" s="51" t="str">
-        <f t="shared" ref="Y3:Y16" si="1">IF(OR(MID(M3, 8, 1) = "3", MOD(MID(M3, 8, 1), 2) = 1), "남", "여")</f>
+      <c r="Z3" s="51" t="str">
+        <f t="shared" ref="Z3:Z16" si="1">IF(OR(MID(N3, 8, 1) = "3", MOD(MID(N3, 8, 1), 2) = 1), "남", "여")</f>
         <v>남</v>
       </c>
-      <c r="Z3" s="51" t="str">
-        <f t="shared" ref="Z3:Z16" si="2">LEFT(M3, 6)</f>
-        <v>911212</v>
-      </c>
-      <c r="AA3" s="51" t="str">
-        <f t="shared" ref="AA3:AA16" si="3">IF(VALUE(MID(M3, 8, 1)) &lt;= 2, "19" &amp; LEFT(M3, 2), "20" &amp; LEFT(M3, 2))</f>
+      <c r="AA3" s="214" t="str">
+        <f t="shared" ref="AA3:AA16" si="2">IF(MID(N3,8,1)*1&lt;=2, "19", "20") &amp; LEFT(N3,2) &amp; "." &amp; MID(N3,3,2) &amp; "." &amp; MID(N3,5,2)</f>
+        <v>1991.12.12</v>
+      </c>
+      <c r="AB3" s="51" t="str">
+        <f t="shared" ref="AB3:AB16" si="3">IF(VALUE(MID(N3, 8, 1)) &lt;= 2, "19" &amp; LEFT(N3, 2), "20" &amp; LEFT(N3, 2))</f>
         <v>1991</v>
       </c>
-      <c r="AB3" s="51">
-        <f t="shared" ref="AB3:AB16" ca="1" si="4">YEAR(TODAY()) - VALUE(IF(VALUE(MID(M3, 8, 1)) &lt;= 2, "19" &amp; LEFT(M3, 2), "20" &amp; LEFT(M3, 2)))</f>
+      <c r="AC3" s="51">
+        <f t="shared" ref="AC3:AC16" ca="1" si="4">YEAR(TODAY()) - VALUE(IF(VALUE(MID(N3, 8, 1)) &lt;= 2, "19" &amp; LEFT(N3, 2), "20" &amp; LEFT(N3, 2)))</f>
         <v>34</v>
       </c>
-      <c r="AC3" s="51" t="str">
-        <f t="shared" ref="AC3:AC16" si="5">IF(OR(ISNUMBER(SEARCH("서울", U3)), ISNUMBER(SEARCH("인천", U3)), ISNUMBER(SEARCH("경기", U3))), "수도권",
-   IF(OR(ISNUMBER(SEARCH("부산", U3)), ISNUMBER(SEARCH("대구", U3)), ISNUMBER(SEARCH("울산", U3)), ISNUMBER(SEARCH("경북", U3)), ISNUMBER(SEARCH("경남", U3)), ISNUMBER(SEARCH("양산", U3)), ISNUMBER(SEARCH("김해", U3)), ISNUMBER(SEARCH("창원", U3)), ISNUMBER(SEARCH("경상북도", U3)), ISNUMBER(SEARCH("경상남도", U3))), "경상권",
-   IF(OR(ISNUMBER(SEARCH("광주", U3)), ISNUMBER(SEARCH("전북", U3)), ISNUMBER(SEARCH("전남", U3)), ISNUMBER(SEARCH("전라북도", U3)), ISNUMBER(SEARCH("전라남도", U3))), "호남권",
-   IF(OR(ISNUMBER(SEARCH("대전", U3)), ISNUMBER(SEARCH("충북", U3)), ISNUMBER(SEARCH("세종", U3)), ISNUMBER(SEARCH("충남", U3)), ISNUMBER(SEARCH("충청북도", U3)), ISNUMBER(SEARCH("충청남도", U3))), "충청권",
-   IF(ISNUMBER(SEARCH("강원", U3)), "강원권",
-   IF(ISNUMBER(SEARCH("제주", U3)), "제주"))))))</f>
+      <c r="AD3" s="51" t="str">
+        <f t="shared" ref="AD3:AD16" si="5">IF(OR(ISNUMBER(SEARCH("서울", V3)), ISNUMBER(SEARCH("인천", V3)), ISNUMBER(SEARCH("경기", V3))), "수도권",
+   IF(OR(ISNUMBER(SEARCH("부산", V3)), ISNUMBER(SEARCH("대구", V3)), ISNUMBER(SEARCH("울산", V3)), ISNUMBER(SEARCH("경북", V3)), ISNUMBER(SEARCH("경남", V3)), ISNUMBER(SEARCH("양산", V3)), ISNUMBER(SEARCH("김해", V3)), ISNUMBER(SEARCH("창원", V3)), ISNUMBER(SEARCH("경상북도", V3)), ISNUMBER(SEARCH("경상남도", V3))), "경상권",
+   IF(OR(ISNUMBER(SEARCH("광주", V3)), ISNUMBER(SEARCH("전북", V3)), ISNUMBER(SEARCH("전남", V3)), ISNUMBER(SEARCH("전라북도", V3)), ISNUMBER(SEARCH("전라남도", V3))), "호남권",
+   IF(OR(ISNUMBER(SEARCH("대전", V3)), ISNUMBER(SEARCH("충북", V3)), ISNUMBER(SEARCH("세종", V3)), ISNUMBER(SEARCH("충남", V3)), ISNUMBER(SEARCH("충청북도", V3)), ISNUMBER(SEARCH("충청남도", V3))), "충청권",
+   IF(ISNUMBER(SEARCH("강원", V3)), "강원권",
+   IF(ISNUMBER(SEARCH("제주", V3)), "제주"))))))</f>
         <v>경상권</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5765,82 +5786,86 @@
       <c r="G4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="214" t="str">
+      <c r="H4" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I4" s="213">
+      <c r="I4" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="V4" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="V4" s="49" t="s">
+      <c r="W4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="50" t="s">
+      <c r="X4" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="X4" s="51" t="str">
+      <c r="Y4" s="51" t="str">
         <f t="shared" si="0"/>
         <v>국민은행/876701-01-175499</v>
       </c>
-      <c r="Y4" s="51" t="str">
-        <f>IF(OR(MID(M4, 8, 1) = "3", MOD(MID(M4, 8, 1), 2) = 1), "남", "여")</f>
+      <c r="Z4" s="51" t="str">
+        <f>IF(OR(MID(N4, 8, 1) = "3", MOD(MID(N4, 8, 1), 2) = 1), "남", "여")</f>
         <v>남</v>
       </c>
-      <c r="Z4" s="51" t="str">
+      <c r="AA4" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>960322</v>
-      </c>
-      <c r="AA4" s="51" t="str">
+        <v>1996.03.22</v>
+      </c>
+      <c r="AB4" s="51" t="str">
         <f t="shared" si="3"/>
         <v>1996</v>
       </c>
-      <c r="AB4" s="51">
+      <c r="AC4" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>29</v>
       </c>
-      <c r="AC4" s="51" t="str">
+      <c r="AD4" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5860,82 +5885,86 @@
       <c r="G5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="214" t="str">
+      <c r="H5" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I5" s="213">
+      <c r="I5" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="U5" s="48" t="s">
+      <c r="V5" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="V5" s="49" t="s">
+      <c r="W5" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="W5" s="50" t="s">
+      <c r="X5" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="X5" s="51" t="str">
+      <c r="Y5" s="51" t="str">
         <f t="shared" si="0"/>
         <v>IBK기업은행/982-002303-01-016</v>
       </c>
-      <c r="Y5" s="51" t="str">
+      <c r="Z5" s="51" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="Z5" s="51" t="str">
+      <c r="AA5" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>961222</v>
-      </c>
-      <c r="AA5" s="51" t="str">
+        <v>1996.12.22</v>
+      </c>
+      <c r="AB5" s="51" t="str">
         <f t="shared" si="3"/>
         <v>1996</v>
       </c>
-      <c r="AB5" s="51">
+      <c r="AC5" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>29</v>
       </c>
-      <c r="AC5" s="51" t="str">
+      <c r="AD5" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5955,82 +5984,86 @@
       <c r="G6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="214" t="str">
+      <c r="H6" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I6" s="213">
+      <c r="I6" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="U6" s="48" t="s">
+      <c r="V6" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="V6" s="49" t="s">
+      <c r="W6" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="W6" s="50" t="s">
+      <c r="X6" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="X6" s="51" t="str">
+      <c r="Y6" s="51" t="str">
         <f t="shared" si="0"/>
         <v>부산은행/112-2187-0758-08</v>
       </c>
-      <c r="Y6" s="51" t="str">
+      <c r="Z6" s="51" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="Z6" s="51" t="str">
+      <c r="AA6" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>030320</v>
-      </c>
-      <c r="AA6" s="51" t="str">
+        <v>2003.03.20</v>
+      </c>
+      <c r="AB6" s="51" t="str">
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="AB6" s="51">
+      <c r="AC6" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
-      <c r="AC6" s="51" t="str">
+      <c r="AD6" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6050,82 +6083,86 @@
       <c r="G7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="214" t="str">
+      <c r="H7" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I7" s="213">
+      <c r="I7" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U7" s="48" t="s">
+      <c r="V7" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="V7" s="49" t="s">
+      <c r="W7" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="W7" s="50" t="s">
+      <c r="X7" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="X7" s="51" t="str">
+      <c r="Y7" s="51" t="str">
         <f t="shared" si="0"/>
         <v>카카오뱅크/3333-28-1012968</v>
       </c>
-      <c r="Y7" s="51" t="str">
+      <c r="Z7" s="51" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="Z7" s="51" t="str">
+      <c r="AA7" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>050330</v>
-      </c>
-      <c r="AA7" s="51" t="str">
+        <v>2005.03.30</v>
+      </c>
+      <c r="AB7" s="51" t="str">
         <f t="shared" si="3"/>
         <v>2005</v>
       </c>
-      <c r="AB7" s="51">
+      <c r="AC7" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>20</v>
       </c>
-      <c r="AC7" s="51" t="str">
+      <c r="AD7" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6145,82 +6182,86 @@
       <c r="G8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="214" t="str">
+      <c r="H8" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I8" s="213">
+      <c r="I8" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="48" t="s">
+      <c r="V8" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="V8" s="49" t="s">
+      <c r="W8" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="W8" s="50" t="s">
+      <c r="X8" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="X8" s="51" t="str">
+      <c r="Y8" s="51" t="str">
         <f t="shared" si="0"/>
         <v>토스뱅크/1000-6732-6365</v>
       </c>
-      <c r="Y8" s="51" t="str">
+      <c r="Z8" s="51" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="Z8" s="51" t="str">
+      <c r="AA8" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>030113</v>
-      </c>
-      <c r="AA8" s="51" t="str">
+        <v>2003.01.13</v>
+      </c>
+      <c r="AB8" s="51" t="str">
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="AB8" s="51">
+      <c r="AC8" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
-      <c r="AC8" s="51" t="str">
+      <c r="AD8" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6240,82 +6281,86 @@
       <c r="G9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="214" t="str">
+      <c r="H9" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I9" s="213">
+      <c r="I9" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U9" s="48" t="s">
+      <c r="V9" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="V9" s="49" t="s">
+      <c r="W9" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="W9" s="50" t="s">
+      <c r="X9" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="X9" s="51" t="str">
+      <c r="Y9" s="51" t="str">
         <f t="shared" si="0"/>
         <v>NH농협/302-1901-2348-31</v>
       </c>
-      <c r="Y9" s="51" t="str">
+      <c r="Z9" s="51" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="Z9" s="51" t="str">
+      <c r="AA9" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>030617</v>
-      </c>
-      <c r="AA9" s="51" t="str">
+        <v>2003.06.17</v>
+      </c>
+      <c r="AB9" s="51" t="str">
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="AB9" s="51">
+      <c r="AC9" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
-      <c r="AC9" s="51" t="str">
+      <c r="AD9" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6335,82 +6380,86 @@
       <c r="G10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="214" t="str">
+      <c r="H10" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I10" s="213">
+      <c r="I10" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U10" s="48" t="s">
+      <c r="V10" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="V10" s="49" t="s">
+      <c r="W10" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="W10" s="50" t="s">
+      <c r="X10" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="X10" s="51" t="str">
+      <c r="Y10" s="51" t="str">
         <f t="shared" si="0"/>
         <v>케이뱅크/100-114-310196</v>
       </c>
-      <c r="Y10" s="51" t="str">
+      <c r="Z10" s="51" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="Z10" s="51" t="str">
+      <c r="AA10" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>021012</v>
-      </c>
-      <c r="AA10" s="51" t="str">
+        <v>2002.10.12</v>
+      </c>
+      <c r="AB10" s="51" t="str">
         <f t="shared" si="3"/>
         <v>2002</v>
       </c>
-      <c r="AB10" s="51">
+      <c r="AC10" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>23</v>
       </c>
-      <c r="AC10" s="51" t="str">
+      <c r="AD10" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6430,82 +6479,86 @@
       <c r="G11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="214" t="str">
+      <c r="H11" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I11" s="213">
+      <c r="I11" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U11" s="48" t="s">
+      <c r="V11" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="V11" s="49" t="s">
+      <c r="W11" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="W11" s="50" t="s">
+      <c r="X11" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="X11" s="51" t="str">
+      <c r="Y11" s="51" t="str">
         <f t="shared" si="0"/>
         <v>IBK기업은행/256-125982-01-011</v>
       </c>
-      <c r="Y11" s="51" t="str">
+      <c r="Z11" s="51" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="Z11" s="51" t="str">
+      <c r="AA11" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>990327</v>
-      </c>
-      <c r="AA11" s="51" t="str">
+        <v>1999.03.27</v>
+      </c>
+      <c r="AB11" s="51" t="str">
         <f t="shared" si="3"/>
         <v>1999</v>
       </c>
-      <c r="AB11" s="51">
+      <c r="AC11" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>26</v>
       </c>
-      <c r="AC11" s="51" t="str">
+      <c r="AD11" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6525,82 +6578,86 @@
       <c r="G12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="214" t="str">
+      <c r="H12" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I12" s="213">
+      <c r="I12" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U12" s="49" t="s">
+      <c r="V12" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="V12" s="49" t="s">
+      <c r="W12" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="W12" s="50" t="s">
+      <c r="X12" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="X12" s="51" t="str">
+      <c r="Y12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>NH농협/352-1943-8746-53</v>
       </c>
-      <c r="Y12" s="51" t="str">
+      <c r="Z12" s="51" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="Z12" s="51" t="str">
+      <c r="AA12" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>031018</v>
-      </c>
-      <c r="AA12" s="51" t="str">
+        <v>2003.10.18</v>
+      </c>
+      <c r="AB12" s="51" t="str">
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="AB12" s="51">
+      <c r="AC12" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
-      <c r="AC12" s="51" t="str">
+      <c r="AD12" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6620,82 +6677,86 @@
       <c r="G13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="214" t="str">
+      <c r="H13" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I13" s="213">
+      <c r="I13" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U13" s="52" t="s">
+      <c r="V13" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="V13" s="49" t="s">
+      <c r="W13" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="W13" s="50" t="s">
+      <c r="X13" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="X13" s="51" t="str">
+      <c r="Y13" s="51" t="str">
         <f t="shared" si="0"/>
         <v>NH농협/302-1336-779511</v>
       </c>
-      <c r="Y13" s="51" t="str">
+      <c r="Z13" s="51" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="Z13" s="51" t="str">
+      <c r="AA13" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>030316</v>
-      </c>
-      <c r="AA13" s="51" t="str">
+        <v>2003.03.16</v>
+      </c>
+      <c r="AB13" s="51" t="str">
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="AB13" s="51">
-        <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(M13, 8, 1)) &lt;= 2, "19" &amp; LEFT(M13, 2), "20" &amp; LEFT(M13, 2)))</f>
+      <c r="AC13" s="51">
+        <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(N13, 8, 1)) &lt;= 2, "19" &amp; LEFT(N13, 2), "20" &amp; LEFT(N13, 2)))</f>
         <v>22</v>
       </c>
-      <c r="AC13" s="51" t="str">
+      <c r="AD13" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6715,82 +6776,86 @@
       <c r="G14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="214" t="str">
+      <c r="H14" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I14" s="213">
+      <c r="I14" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U14" s="49" t="s">
+      <c r="V14" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="V14" s="49" t="s">
+      <c r="W14" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="W14" s="50" t="s">
+      <c r="X14" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="X14" s="51" t="str">
+      <c r="Y14" s="51" t="str">
         <f t="shared" si="0"/>
         <v>부산은행/112-2259-0331-02</v>
       </c>
-      <c r="Y14" s="51" t="str">
+      <c r="Z14" s="51" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="Z14" s="51" t="str">
+      <c r="AA14" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>030922</v>
-      </c>
-      <c r="AA14" s="51" t="str">
+        <v>2003.09.22</v>
+      </c>
+      <c r="AB14" s="51" t="str">
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="AB14" s="51">
+      <c r="AC14" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
-      <c r="AC14" s="51" t="str">
+      <c r="AD14" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6810,80 +6875,84 @@
       <c r="G15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="214" t="str">
+      <c r="H15" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I15" s="213">
+      <c r="I15" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="48" t="s">
+      <c r="U15" s="1"/>
+      <c r="V15" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="V15" s="49" t="s">
+      <c r="W15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="50" t="s">
+      <c r="X15" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="X15" s="51" t="str">
+      <c r="Y15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>국민은행/202042580022</v>
       </c>
-      <c r="Y15" s="51" t="str">
+      <c r="Z15" s="51" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="Z15" s="51" t="str">
+      <c r="AA15" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>061231</v>
-      </c>
-      <c r="AA15" s="51" t="str">
+        <v>2006.12.31</v>
+      </c>
+      <c r="AB15" s="51" t="str">
         <f t="shared" si="3"/>
         <v>2006</v>
       </c>
-      <c r="AB15" s="51">
+      <c r="AC15" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>19</v>
       </c>
-      <c r="AC15" s="51" t="str">
+      <c r="AD15" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6903,75 +6972,79 @@
       <c r="G16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="214" t="str">
+      <c r="H16" s="190" t="str">
         <f>'사전직무,운영기관,일경험 정보'!$C$46</f>
         <v>2024.12.31</v>
       </c>
-      <c r="I16" s="213">
+      <c r="I16" s="189">
         <f>'사전직무,운영기관,일경험 정보'!$C$47</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="1" t="str">
+        <f>참여기업!$C$3</f>
+        <v>㈜쇼우테크</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="48" t="s">
+      <c r="U16" s="1"/>
+      <c r="V16" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="V16" s="49" t="s">
+      <c r="W16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="W16" s="50" t="s">
+      <c r="X16" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="X16" s="51" t="str">
+      <c r="Y16" s="51" t="str">
         <f t="shared" si="0"/>
         <v>신한은행/110512847475</v>
       </c>
-      <c r="Y16" s="51" t="str">
+      <c r="Z16" s="51" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="Z16" s="51" t="str">
+      <c r="AA16" s="214" t="str">
         <f t="shared" si="2"/>
-        <v>030218</v>
-      </c>
-      <c r="AA16" s="51" t="str">
+        <v>2003.02.18</v>
+      </c>
+      <c r="AB16" s="51" t="str">
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="AB16" s="51">
+      <c r="AC16" s="51">
         <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
-      <c r="AC16" s="51" t="str">
+      <c r="AD16" s="51" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
@@ -6988,7 +7061,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7002,13 +7075,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" thickBot="1">
       <c r="A2" s="54" t="s">
@@ -7028,7 +7101,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" thickTop="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="193" t="s">
         <v>144</v>
       </c>
       <c r="B3" s="56" t="s">
@@ -7045,7 +7118,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25">
-      <c r="A4" s="192"/>
+      <c r="A4" s="194"/>
       <c r="B4" s="58" t="s">
         <v>51</v>
       </c>
@@ -7056,7 +7129,7 @@
       <c r="E4" s="61"/>
     </row>
     <row r="5" spans="1:5" ht="17.25">
-      <c r="A5" s="192"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="62" t="s">
         <v>368</v>
       </c>
@@ -7067,7 +7140,7 @@
       <c r="E5" s="61"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="192"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="58" t="s">
         <v>37</v>
       </c>
@@ -7076,7 +7149,7 @@
       <c r="E6" s="63"/>
     </row>
     <row r="7" spans="1:5" ht="17.25">
-      <c r="A7" s="192"/>
+      <c r="A7" s="194"/>
       <c r="B7" s="60" t="s">
         <v>38</v>
       </c>
@@ -7085,7 +7158,7 @@
       <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="192"/>
+      <c r="A8" s="194"/>
       <c r="B8" s="58" t="s">
         <v>52</v>
       </c>
@@ -7094,7 +7167,7 @@
       <c r="E8" s="61"/>
     </row>
     <row r="9" spans="1:5" ht="17.25">
-      <c r="A9" s="192"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="66" t="s">
         <v>145</v>
       </c>
@@ -7109,7 +7182,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="192"/>
+      <c r="A10" s="194"/>
       <c r="B10" s="60" t="s">
         <v>39</v>
       </c>
@@ -7120,7 +7193,7 @@
       <c r="E10" s="61"/>
     </row>
     <row r="11" spans="1:5" ht="17.25">
-      <c r="A11" s="192"/>
+      <c r="A11" s="194"/>
       <c r="B11" s="64" t="s">
         <v>40</v>
       </c>
@@ -7131,7 +7204,7 @@
       <c r="E11" s="61"/>
     </row>
     <row r="12" spans="1:5" ht="17.25">
-      <c r="A12" s="192"/>
+      <c r="A12" s="194"/>
       <c r="B12" s="58" t="s">
         <v>53</v>
       </c>
@@ -7142,7 +7215,7 @@
       <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:5" ht="17.25">
-      <c r="A13" s="192"/>
+      <c r="A13" s="194"/>
       <c r="B13" s="62" t="s">
         <v>42</v>
       </c>
@@ -7153,32 +7226,32 @@
       <c r="E13" s="61"/>
     </row>
     <row r="14" spans="1:5" ht="17.25">
-      <c r="A14" s="192"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="64"/>
       <c r="C14" s="63"/>
       <c r="D14" s="60"/>
       <c r="E14" s="61"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="192"/>
-      <c r="B15" s="194" t="s">
+      <c r="A15" s="194"/>
+      <c r="B15" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="196" t="s">
+      <c r="C15" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="192"/>
-      <c r="B16" s="195"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="192"/>
+      <c r="A17" s="194"/>
       <c r="B17" s="60" t="s">
         <v>45</v>
       </c>
@@ -7189,7 +7262,7 @@
       <c r="E17" s="61"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="192"/>
+      <c r="A18" s="194"/>
       <c r="B18" s="60" t="s">
         <v>47</v>
       </c>
@@ -7200,7 +7273,7 @@
       <c r="E18" s="61"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="192"/>
+      <c r="A19" s="194"/>
       <c r="B19" s="60" t="s">
         <v>49</v>
       </c>
@@ -7211,21 +7284,21 @@
       <c r="E19" s="61"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="192"/>
+      <c r="A20" s="194"/>
       <c r="B20" s="60"/>
       <c r="C20" s="61"/>
       <c r="D20" s="60"/>
       <c r="E20" s="61"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A21" s="193"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="68"/>
       <c r="C21" s="69"/>
       <c r="D21" s="68"/>
       <c r="E21" s="69"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="200" t="s">
+      <c r="A24" s="202" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="58" t="s">
@@ -7238,7 +7311,7 @@
       <c r="E24" s="71"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="201"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="58" t="s">
         <v>56</v>
       </c>
@@ -7249,7 +7322,7 @@
       <c r="E25" s="61"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A26" s="201"/>
+      <c r="A26" s="203"/>
       <c r="B26" s="58" t="s">
         <v>57</v>
       </c>
@@ -7260,7 +7333,7 @@
       <c r="E26" s="61"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A27" s="201"/>
+      <c r="A27" s="203"/>
       <c r="B27" s="58" t="s">
         <v>58</v>
       </c>
@@ -7271,7 +7344,7 @@
       <c r="E27" s="61"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A28" s="201"/>
+      <c r="A28" s="203"/>
       <c r="B28" s="73" t="s">
         <v>59</v>
       </c>
@@ -7282,7 +7355,7 @@
       <c r="E28" s="61"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A29" s="201"/>
+      <c r="A29" s="203"/>
       <c r="B29" s="58" t="s">
         <v>60</v>
       </c>
@@ -7291,14 +7364,14 @@
       <c r="E29" s="61"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A30" s="201"/>
+      <c r="A30" s="203"/>
       <c r="B30" s="85"/>
       <c r="C30" s="63"/>
       <c r="D30" s="72"/>
       <c r="E30" s="61"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A31" s="202"/>
+      <c r="A31" s="204"/>
       <c r="B31" s="74"/>
       <c r="C31" s="69"/>
       <c r="D31" s="74"/>
@@ -7347,7 +7420,7 @@
     <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickTop="1">
+    <row r="1" spans="1:10" ht="18" thickTop="1">
       <c r="A1" s="185" t="s">
         <v>367</v>
       </c>
@@ -7450,7 +7523,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -7463,17 +7536,17 @@
     <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" thickBot="1">
-      <c r="A1" s="206" t="s">
+    <row r="1" spans="1:5" ht="28.5" thickBot="1">
+      <c r="A1" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="210" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -7490,7 +7563,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A3" s="209"/>
+      <c r="A3" s="208"/>
       <c r="B3" s="42" t="s">
         <v>119</v>
       </c>
@@ -7505,7 +7578,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="209"/>
+      <c r="A4" s="208"/>
       <c r="B4" s="24" t="s">
         <v>64</v>
       </c>
@@ -7520,7 +7593,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A5" s="209"/>
+      <c r="A5" s="208"/>
       <c r="B5" s="28" t="s">
         <v>115</v>
       </c>
@@ -7535,7 +7608,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A6" s="209"/>
+      <c r="A6" s="208"/>
       <c r="B6" s="28" t="s">
         <v>114</v>
       </c>
@@ -7547,7 +7620,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A7" s="209"/>
+      <c r="A7" s="208"/>
       <c r="B7" s="28" t="s">
         <v>111</v>
       </c>
@@ -7558,7 +7631,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A8" s="209"/>
+      <c r="A8" s="208"/>
       <c r="B8" s="30" t="s">
         <v>20</v>
       </c>
@@ -7569,7 +7642,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="209"/>
+      <c r="A9" s="208"/>
       <c r="B9" s="25" t="s">
         <v>68</v>
       </c>
@@ -7580,7 +7653,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A10" s="209"/>
+      <c r="A10" s="208"/>
       <c r="B10" s="26" t="s">
         <v>71</v>
       </c>
@@ -7595,7 +7668,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="209"/>
+      <c r="A11" s="208"/>
       <c r="B11" s="29" t="s">
         <v>112</v>
       </c>
@@ -7607,7 +7680,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A12" s="209"/>
+      <c r="A12" s="208"/>
       <c r="B12" s="36" t="s">
         <v>113</v>
       </c>
@@ -7618,14 +7691,14 @@
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A13" s="209"/>
+      <c r="A13" s="208"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
       <c r="D13" s="19"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A14" s="209"/>
+      <c r="A14" s="208"/>
       <c r="B14" s="36" t="s">
         <v>140</v>
       </c>
@@ -7636,7 +7709,7 @@
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="209"/>
+      <c r="A15" s="208"/>
       <c r="B15" s="29" t="s">
         <v>139</v>
       </c>
@@ -7647,7 +7720,7 @@
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="210"/>
+      <c r="A16" s="209"/>
       <c r="B16" s="45" t="s">
         <v>141</v>
       </c>
@@ -7673,7 +7746,7 @@
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" s="208" t="s">
+      <c r="A19" s="207" t="s">
         <v>122</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -7690,7 +7763,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A20" s="209"/>
+      <c r="A20" s="208"/>
       <c r="B20" s="44" t="s">
         <v>143</v>
       </c>
@@ -7705,9 +7778,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="209"/>
+      <c r="A21" s="208"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="212"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="27" t="s">
         <v>132</v>
       </c>
@@ -7716,70 +7789,70 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="209"/>
+      <c r="A22" s="208"/>
       <c r="B22" s="42"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A23" s="209"/>
+      <c r="A23" s="208"/>
       <c r="B23" s="28"/>
       <c r="C23" s="9"/>
       <c r="D23" s="27"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="209"/>
+      <c r="A24" s="208"/>
       <c r="B24" s="28"/>
       <c r="C24" s="11"/>
       <c r="D24" s="18"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="209"/>
+      <c r="A25" s="208"/>
       <c r="B25" s="28"/>
       <c r="C25" s="12"/>
       <c r="D25" s="18"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="17.25">
-      <c r="A26" s="209"/>
+      <c r="A26" s="208"/>
       <c r="B26" s="30"/>
       <c r="C26" s="13"/>
       <c r="D26" s="18"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A27" s="209"/>
+      <c r="A27" s="208"/>
       <c r="B27" s="25"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A28" s="209"/>
+      <c r="A28" s="208"/>
       <c r="B28" s="26"/>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A29" s="209"/>
+      <c r="A29" s="208"/>
       <c r="B29" s="29"/>
       <c r="C29" s="14"/>
       <c r="D29" s="19"/>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A30" s="209"/>
+      <c r="A30" s="208"/>
       <c r="B30" s="36"/>
       <c r="C30" s="37"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="210"/>
+      <c r="A31" s="209"/>
       <c r="B31" s="8"/>
       <c r="C31" s="39"/>
       <c r="D31" s="40"/>
@@ -7800,7 +7873,7 @@
       <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A34" s="203" t="s">
+      <c r="A34" s="211" t="s">
         <v>74</v>
       </c>
       <c r="B34" s="30" t="s">
@@ -7813,7 +7886,7 @@
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A35" s="204"/>
+      <c r="A35" s="212"/>
       <c r="B35" s="2" t="s">
         <v>75</v>
       </c>
@@ -7824,7 +7897,7 @@
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A36" s="204"/>
+      <c r="A36" s="212"/>
       <c r="B36" s="31" t="s">
         <v>77</v>
       </c>
@@ -7835,7 +7908,7 @@
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A37" s="204"/>
+      <c r="A37" s="212"/>
       <c r="B37" s="2" t="s">
         <v>78</v>
       </c>
@@ -7847,7 +7920,7 @@
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A38" s="204"/>
+      <c r="A38" s="212"/>
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
@@ -7858,7 +7931,7 @@
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A39" s="204"/>
+      <c r="A39" s="212"/>
       <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
@@ -7869,7 +7942,7 @@
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A40" s="204"/>
+      <c r="A40" s="212"/>
       <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
@@ -7880,7 +7953,7 @@
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A41" s="204"/>
+      <c r="A41" s="212"/>
       <c r="B41" s="28" t="s">
         <v>135</v>
       </c>
@@ -7891,7 +7964,7 @@
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A42" s="204"/>
+      <c r="A42" s="212"/>
       <c r="B42" s="28" t="s">
         <v>136</v>
       </c>
@@ -7902,7 +7975,7 @@
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A43" s="204"/>
+      <c r="A43" s="212"/>
       <c r="B43" s="28" t="s">
         <v>134</v>
       </c>
@@ -7918,7 +7991,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A44" s="204"/>
+      <c r="A44" s="212"/>
       <c r="B44" s="2" t="s">
         <v>82</v>
       </c>
@@ -7930,7 +8003,7 @@
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A45" s="204"/>
+      <c r="A45" s="212"/>
       <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
@@ -7939,7 +8012,7 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A46" s="204"/>
+      <c r="A46" s="212"/>
       <c r="B46" s="86" t="s">
         <v>283</v>
       </c>
@@ -7951,7 +8024,7 @@
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A47" s="204"/>
+      <c r="A47" s="212"/>
       <c r="B47" s="2" t="s">
         <v>84</v>
       </c>
@@ -7960,7 +8033,7 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A48" s="204"/>
+      <c r="A48" s="212"/>
       <c r="B48" s="32" t="s">
         <v>85</v>
       </c>
@@ -7971,7 +8044,7 @@
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A49" s="204"/>
+      <c r="A49" s="212"/>
       <c r="B49" s="32" t="s">
         <v>87</v>
       </c>
@@ -7982,7 +8055,7 @@
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A50" s="204"/>
+      <c r="A50" s="212"/>
       <c r="B50" s="32" t="s">
         <v>89</v>
       </c>
@@ -7993,7 +8066,7 @@
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A51" s="204"/>
+      <c r="A51" s="212"/>
       <c r="B51" s="32" t="s">
         <v>90</v>
       </c>
@@ -8004,7 +8077,7 @@
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A52" s="204"/>
+      <c r="A52" s="212"/>
       <c r="B52" s="32" t="s">
         <v>91</v>
       </c>
@@ -8015,7 +8088,7 @@
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A53" s="204"/>
+      <c r="A53" s="212"/>
       <c r="B53" s="32" t="s">
         <v>93</v>
       </c>
@@ -8026,7 +8099,7 @@
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A54" s="204"/>
+      <c r="A54" s="212"/>
       <c r="B54" s="32" t="s">
         <v>95</v>
       </c>
@@ -8037,7 +8110,7 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A55" s="204"/>
+      <c r="A55" s="212"/>
       <c r="B55" s="32" t="s">
         <v>96</v>
       </c>
@@ -8048,14 +8121,14 @@
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="204"/>
+      <c r="A56" s="212"/>
       <c r="B56" s="33"/>
       <c r="C56" s="20"/>
       <c r="D56" s="21"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A57" s="205"/>
+      <c r="A57" s="213"/>
       <c r="B57" s="34"/>
       <c r="C57" s="22"/>
       <c r="D57" s="23"/>
@@ -8191,15 +8264,15 @@
         <v>1</v>
       </c>
       <c r="C5" s="179" t="str" cm="1">
-        <f t="array" ref="C5:C19">참여자명단!L2:L16</f>
+        <f t="array" ref="C5:C19">참여자명단!M2:M16</f>
         <v>김성재</v>
       </c>
       <c r="D5" s="174" t="str">
-        <f>참여자명단!V2</f>
+        <f>참여자명단!W2</f>
         <v>우리은행</v>
       </c>
       <c r="E5" s="125" t="str">
-        <f>참여자명단!W2</f>
+        <f>참여자명단!X2</f>
         <v>1002-263-075614</v>
       </c>
       <c r="F5" s="110" t="str">
@@ -8207,7 +8280,7 @@
         <v>우리은행 1002-263-075614</v>
       </c>
       <c r="G5" s="175" t="str">
-        <f>참여자명단!M2</f>
+        <f>참여자명단!N2</f>
         <v>980515-1861417</v>
       </c>
       <c r="H5" s="123">
@@ -8253,11 +8326,11 @@
         <v>박동기</v>
       </c>
       <c r="D6" s="174" t="str">
-        <f>참여자명단!V3</f>
+        <f>참여자명단!W3</f>
         <v>신한은행</v>
       </c>
       <c r="E6" s="125" t="str">
-        <f>참여자명단!W3</f>
+        <f>참여자명단!X3</f>
         <v>110-309-305274</v>
       </c>
       <c r="F6" s="110" t="str">
@@ -8265,7 +8338,7 @@
         <v>신한은행 110-309-305274</v>
       </c>
       <c r="G6" s="175" t="str">
-        <f>참여자명단!M3</f>
+        <f>참여자명단!N3</f>
         <v>911212-1105519</v>
       </c>
       <c r="H6" s="123">
@@ -8311,11 +8384,11 @@
         <v>양승호</v>
       </c>
       <c r="D7" s="174" t="str">
-        <f>참여자명단!V4</f>
+        <f>참여자명단!W4</f>
         <v>국민은행</v>
       </c>
       <c r="E7" s="125" t="str">
-        <f>참여자명단!W4</f>
+        <f>참여자명단!X4</f>
         <v>876701-01-175499</v>
       </c>
       <c r="F7" s="110" t="str">
@@ -8323,7 +8396,7 @@
         <v>국민은행 876701-01-175499</v>
       </c>
       <c r="G7" s="175" t="str">
-        <f>참여자명단!M4</f>
+        <f>참여자명단!N4</f>
         <v>960322-1114211</v>
       </c>
       <c r="H7" s="123">
@@ -8369,11 +8442,11 @@
         <v>김정수</v>
       </c>
       <c r="D8" s="174" t="str">
-        <f>참여자명단!V5</f>
+        <f>참여자명단!W5</f>
         <v>IBK기업은행</v>
       </c>
       <c r="E8" s="125" t="str">
-        <f>참여자명단!W5</f>
+        <f>참여자명단!X5</f>
         <v>982-002303-01-016</v>
       </c>
       <c r="F8" s="110" t="str">
@@ -8381,7 +8454,7 @@
         <v>IBK기업은행 982-002303-01-016</v>
       </c>
       <c r="G8" s="175" t="str">
-        <f>참여자명단!M5</f>
+        <f>참여자명단!N5</f>
         <v>961222-1125217</v>
       </c>
       <c r="H8" s="123">
@@ -8427,11 +8500,11 @@
         <v>류예지</v>
       </c>
       <c r="D9" s="174" t="str">
-        <f>참여자명단!V6</f>
+        <f>참여자명단!W6</f>
         <v>부산은행</v>
       </c>
       <c r="E9" s="125" t="str">
-        <f>참여자명단!W6</f>
+        <f>참여자명단!X6</f>
         <v>112-2187-0758-08</v>
       </c>
       <c r="F9" s="110" t="str">
@@ -8439,7 +8512,7 @@
         <v>부산은행 112-2187-0758-08</v>
       </c>
       <c r="G9" s="175" t="str">
-        <f>참여자명단!M6</f>
+        <f>참여자명단!N6</f>
         <v>030320-4119623</v>
       </c>
       <c r="H9" s="123">
@@ -8485,11 +8558,11 @@
         <v>김나현</v>
       </c>
       <c r="D10" s="174" t="str">
-        <f>참여자명단!V7</f>
+        <f>참여자명단!W7</f>
         <v>카카오뱅크</v>
       </c>
       <c r="E10" s="125" t="str">
-        <f>참여자명단!W7</f>
+        <f>참여자명단!X7</f>
         <v>3333-28-1012968</v>
       </c>
       <c r="F10" s="110" t="str">
@@ -8497,7 +8570,7 @@
         <v>카카오뱅크 3333-28-1012968</v>
       </c>
       <c r="G10" s="175" t="str">
-        <f>참여자명단!M7</f>
+        <f>참여자명단!N7</f>
         <v>050330-4095216</v>
       </c>
       <c r="H10" s="123">
@@ -8543,11 +8616,11 @@
         <v>김소정</v>
       </c>
       <c r="D11" s="174" t="str">
-        <f>참여자명단!V8</f>
+        <f>참여자명단!W8</f>
         <v>토스뱅크</v>
       </c>
       <c r="E11" s="125" t="str">
-        <f>참여자명단!W8</f>
+        <f>참여자명단!X8</f>
         <v>1000-6732-6365</v>
       </c>
       <c r="F11" s="110" t="str">
@@ -8555,7 +8628,7 @@
         <v>토스뱅크 1000-6732-6365</v>
       </c>
       <c r="G11" s="175" t="str">
-        <f>참여자명단!M8</f>
+        <f>참여자명단!N8</f>
         <v>030113-4103110</v>
       </c>
       <c r="H11" s="123">
@@ -8601,11 +8674,11 @@
         <v>박소희</v>
       </c>
       <c r="D12" s="174" t="str">
-        <f>참여자명단!V9</f>
+        <f>참여자명단!W9</f>
         <v>NH농협</v>
       </c>
       <c r="E12" s="125" t="str">
-        <f>참여자명단!W9</f>
+        <f>참여자명단!X9</f>
         <v>302-1901-2348-31</v>
       </c>
       <c r="F12" s="110" t="str">
@@ -8613,7 +8686,7 @@
         <v>NH농협 302-1901-2348-31</v>
       </c>
       <c r="G12" s="175" t="str">
-        <f>참여자명단!M9</f>
+        <f>참여자명단!N9</f>
         <v>030617-4784115</v>
       </c>
       <c r="H12" s="123">
@@ -8659,11 +8732,11 @@
         <v>신현수</v>
       </c>
       <c r="D13" s="174" t="str">
-        <f>참여자명단!V10</f>
+        <f>참여자명단!W10</f>
         <v>케이뱅크</v>
       </c>
       <c r="E13" s="125" t="str">
-        <f>참여자명단!W10</f>
+        <f>참여자명단!X10</f>
         <v>100-114-310196</v>
       </c>
       <c r="F13" s="110" t="str">
@@ -8671,7 +8744,7 @@
         <v>케이뱅크 100-114-310196</v>
       </c>
       <c r="G13" s="175" t="str">
-        <f>참여자명단!M10</f>
+        <f>참여자명단!N10</f>
         <v>021012-3094811</v>
       </c>
       <c r="H13" s="123">
@@ -8717,11 +8790,11 @@
         <v>이형덕</v>
       </c>
       <c r="D14" s="174" t="str">
-        <f>참여자명단!V11</f>
+        <f>참여자명단!W11</f>
         <v>IBK기업은행</v>
       </c>
       <c r="E14" s="125" t="str">
-        <f>참여자명단!W11</f>
+        <f>참여자명단!X11</f>
         <v>256-125982-01-011</v>
       </c>
       <c r="F14" s="110" t="str">
@@ -8729,7 +8802,7 @@
         <v>IBK기업은행 256-125982-01-011</v>
       </c>
       <c r="G14" s="175" t="str">
-        <f>참여자명단!M11</f>
+        <f>참여자명단!N11</f>
         <v>990327-1865420</v>
       </c>
       <c r="H14" s="123">
@@ -8775,11 +8848,11 @@
         <v>장효석</v>
       </c>
       <c r="D15" s="174" t="str">
-        <f>참여자명단!V12</f>
+        <f>참여자명단!W12</f>
         <v>NH농협</v>
       </c>
       <c r="E15" s="125" t="str">
-        <f>참여자명단!W12</f>
+        <f>참여자명단!X12</f>
         <v>352-1943-8746-53</v>
       </c>
       <c r="F15" s="110" t="str">
@@ -8787,7 +8860,7 @@
         <v>NH농협 352-1943-8746-53</v>
       </c>
       <c r="G15" s="175" t="str">
-        <f>참여자명단!M12</f>
+        <f>참여자명단!N12</f>
         <v>031018-3728424</v>
       </c>
       <c r="H15" s="123">
@@ -8833,11 +8906,11 @@
         <v>이다은</v>
       </c>
       <c r="D16" s="174" t="str">
-        <f>참여자명단!V13</f>
+        <f>참여자명단!W13</f>
         <v>NH농협</v>
       </c>
       <c r="E16" s="125" t="str">
-        <f>참여자명단!W13</f>
+        <f>참여자명단!X13</f>
         <v>302-1336-779511</v>
       </c>
       <c r="F16" s="110" t="str">
@@ -8845,7 +8918,7 @@
         <v>NH농협 302-1336-779511</v>
       </c>
       <c r="G16" s="175" t="str">
-        <f>참여자명단!M13</f>
+        <f>참여자명단!N13</f>
         <v>030316-4903917</v>
       </c>
       <c r="H16" s="123">
@@ -8891,11 +8964,11 @@
         <v>박수정</v>
       </c>
       <c r="D17" s="174" t="str">
-        <f>참여자명단!V14</f>
+        <f>참여자명단!W14</f>
         <v>부산은행</v>
       </c>
       <c r="E17" s="125" t="str">
-        <f>참여자명단!W14</f>
+        <f>참여자명단!X14</f>
         <v>112-2259-0331-02</v>
       </c>
       <c r="F17" s="110" t="str">
@@ -8903,7 +8976,7 @@
         <v>부산은행 112-2259-0331-02</v>
       </c>
       <c r="G17" s="175" t="str">
-        <f>참여자명단!M14</f>
+        <f>참여자명단!N14</f>
         <v>030922-411341</v>
       </c>
       <c r="H17" s="123">
@@ -8949,11 +9022,11 @@
         <v>김진우</v>
       </c>
       <c r="D18" s="174" t="str">
-        <f>참여자명단!V15</f>
+        <f>참여자명단!W15</f>
         <v>국민은행</v>
       </c>
       <c r="E18" s="125" t="str">
-        <f>참여자명단!W15</f>
+        <f>참여자명단!X15</f>
         <v>202042580022</v>
       </c>
       <c r="F18" s="110" t="str">
@@ -8961,7 +9034,7 @@
         <v>국민은행 202042580022</v>
       </c>
       <c r="G18" s="175" t="str">
-        <f>참여자명단!M15</f>
+        <f>참여자명단!N15</f>
         <v>061231-3124212</v>
       </c>
       <c r="H18" s="123">
@@ -9007,11 +9080,11 @@
         <v>서민영</v>
       </c>
       <c r="D19" s="174" t="str">
-        <f>참여자명단!V16</f>
+        <f>참여자명단!W16</f>
         <v>신한은행</v>
       </c>
       <c r="E19" s="125" t="str">
-        <f>참여자명단!W16</f>
+        <f>참여자명단!X16</f>
         <v>110512847475</v>
       </c>
       <c r="F19" s="110" t="str">
@@ -9019,7 +9092,7 @@
         <v>신한은행 110512847475</v>
       </c>
       <c r="G19" s="175" t="str">
-        <f>참여자명단!M16</f>
+        <f>참여자명단!N16</f>
         <v>030218-4109310</v>
       </c>
       <c r="H19" s="123">
